--- a/pred_ohlcv/54_21/2020-01-11 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 OGO ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1774344.338376916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1676829.557576916</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>443320.2476848934</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>438249.7300244385</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>288637.4876244385</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>870992.0889334134</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1323656.110970095</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>592544.9528240778</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>605118.9846023386</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>589118.9846023386</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>146646.3555023386</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>197802.1761023386</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>92646.94410233862</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3135510.68353348</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2888525.46843348</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3191389.088136706</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3043343.165312607</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3267129.287012607</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3163190.832712607</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3220556.160712607</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3259143.802912607</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3259143.802912607</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3556827.943609004</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3168678.976499768</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3091563.010999768</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3240319.634499768</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2447436.809499768</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2555020.847599768</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2841863.335664171</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2821488.027764171</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3433310.152224613</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3686249.106124613</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3577432.993424613</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3607451.080807664</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2892356.112107664</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2994591.061407664</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3007020.645407664</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2615483.527607664</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-2030489.032618505</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-2024489.032618505</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1814259.032618505</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1495747.892818505</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-2325180.321208625</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-2307031.938308625</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-2309031.938308625</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-2449886.384808625</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-2862729.999408625</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-2989688.240908625</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-2986520.343308625</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-2986729.367508625</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3170758.450008625</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3397914.925408625</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-3418173.049408624</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3192709.816708624</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-2963472.816708624</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2931409.816808624</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-2878000.816808624</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-2682855.816808624</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-2687763.723608624</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-2692639.758708624</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-3173808.59591453</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3227474.736093723</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-3209292.736093723</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 OGO ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1774344.338376916</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1676829.557576916</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>443320.2476848934</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>438249.7300244385</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>288637.4876244385</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>870992.0889334134</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1323656.110970095</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>592544.9528240778</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>605118.9846023386</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>589118.9846023386</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>146646.3555023386</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>197802.1761023386</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>92646.94410233862</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3135510.68353348</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2888525.46843348</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2903327.068436706</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3191389.088136706</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3043343.165312607</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3267129.287012607</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3163190.832712607</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3220556.160712607</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3259143.802912607</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3259143.802912607</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3556827.943609004</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3168678.976499768</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3091563.010999768</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3240319.634499768</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2447436.809499768</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2555020.847599768</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3607451.080807664</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2994591.061407664</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2615483.527607664</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>2506026.002307664</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1904234.032618505</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1495747.892818505</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-2325180.321208625</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-2307031.938308625</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-2309031.938308625</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-2449886.384808625</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-2862729.999408625</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-2989688.240908625</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-2986520.343308625</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-2986729.367508625</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3170758.450008625</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3397914.925408625</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3192709.816708624</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-2963472.816708624</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2931409.816808624</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-2878000.816808624</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-2682855.816808624</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-2687763.723608624</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-2692639.758708624</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-3173808.59591453</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3227474.736093723</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-3153366.736093723</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
